--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1046063.331557985</v>
+        <v>972222.1386223428</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="4">
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,13 +949,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.81546390464592</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>26.60719650430776</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.1349099757449</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>62.40091169251094</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393325</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
         <v>251.2648474376504</v>
@@ -1454,10 +1454,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11.75532532280888</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.555310432046248</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207134</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.9937234637972</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022414</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393327</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
@@ -1663,7 +1663,7 @@
         <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>116.5080747913937</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>11.24609545764566</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>99.82280217136334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T15" t="n">
-        <v>64.67251243894241</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
         <v>225.9058271976456</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9937234637972</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022415</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>48.39989579700855</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>130.9056631825905</v>
+        <v>237.4634412478799</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.73368183665213</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>118.7001499689964</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199399</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>73.20092334033671</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393327</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>119.0246026812334</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.7895772424515</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>82.35859283669745</v>
       </c>
       <c r="T21" t="n">
-        <v>138.9521475898749</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.196604800554949</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>87.08742702575498</v>
       </c>
       <c r="T22" t="n">
         <v>226.0096940321479</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>66.23525597315201</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.5808806410308</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>85.64047902724785</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>249.423768227516</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>79.7859894428951</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>49.20343734336397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>38.29485867911176</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>196.4332222522213</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>81.73692581035934</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.65999290181375</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>138.0722726642783</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>43.83743093372762</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>116.2349668968042</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>30.74671696643804</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>128.5106545542413</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>67.36639160735545</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>219.4182428509135</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.25641376481833</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>344.3310636953904</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="V43" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.4106407312797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>117.2947824123719</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>129.6781866221427</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4421,40 +4421,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>868.2839596473575</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>868.2839596473575</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>666.0973650061235</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>666.0973650061235</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>430.9452567743808</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>187.4964801302808</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="7">
@@ -4743,16 +4743,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.29976984439196</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C9" t="n">
-        <v>51.29976984439196</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D9" t="n">
-        <v>51.29976984439196</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>51.29976984439196</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>51.29976984439196</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>51.29976984439196</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>51.29976984439196</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>561.5772602551137</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="Y9" t="n">
-        <v>51.29976984439196</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1249.352772588291</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.352772588291</v>
+        <v>934.6824490109821</v>
       </c>
       <c r="D11" t="n">
-        <v>1249.352772588291</v>
+        <v>934.6824490109821</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.352772588291</v>
+        <v>934.6824490109821</v>
       </c>
       <c r="F11" t="n">
-        <v>966.3882170572355</v>
+        <v>523.6965442213746</v>
       </c>
       <c r="G11" t="n">
-        <v>547.9107734836912</v>
+        <v>105.2191006478303</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803413</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
         <v>1777.842707170708</v>
@@ -5062,31 +5062,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1834.218536131508</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1834.218536131508</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1580.415659931862</v>
+        <v>1634.707853294964</v>
       </c>
       <c r="V11" t="n">
-        <v>1249.352772588291</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="W11" t="n">
-        <v>1249.352772588291</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="X11" t="n">
-        <v>1249.352772588291</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="Y11" t="n">
-        <v>1249.352772588291</v>
+        <v>1303.644965951394</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410146</v>
+        <v>377.4493816410141</v>
       </c>
       <c r="C12" t="n">
-        <v>202.9963523598875</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="D12" t="n">
-        <v>54.06194269863627</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="E12" t="n">
-        <v>42.18787671600104</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600104</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600104</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600104</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147169</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284377</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448792</v>
+        <v>508.959781349409</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129935</v>
+        <v>964.8594711344645</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.455839519193</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.506473496563</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875405</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
         <v>2042.117567525232</v>
@@ -5150,22 +5150,22 @@
         <v>1878.839948962385</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.85368683156</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591514</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.513874359771</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315693</v>
+        <v>961.2765176315688</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260364</v>
+        <v>753.425017426036</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610826</v>
+        <v>545.6647186610821</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
-        <v>407.1880976177522</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H13" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L13" t="n">
         <v>166.2559978081031</v>
@@ -5211,40 +5211,40 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O13" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842141</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842141</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>769.4160922631633</v>
+        <v>995.4042059748465</v>
       </c>
       <c r="C14" t="n">
-        <v>400.4535753227515</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="D14" t="n">
-        <v>42.18787671600104</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600104</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600104</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600104</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600104</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
         <v>683.321988080341</v>
@@ -5290,7 +5290,7 @@
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
@@ -5299,7 +5299,7 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
         <v>2022.100492129412</v>
@@ -5311,19 +5311,19 @@
         <v>1613.335429826068</v>
       </c>
       <c r="U14" t="n">
-        <v>1495.650505794357</v>
+        <v>1359.532553626421</v>
       </c>
       <c r="V14" t="n">
-        <v>1495.650505794357</v>
+        <v>1359.532553626421</v>
       </c>
       <c r="W14" t="n">
-        <v>1142.881850524243</v>
+        <v>1006.763898356307</v>
       </c>
       <c r="X14" t="n">
-        <v>769.4160922631633</v>
+        <v>1006.763898356307</v>
       </c>
       <c r="Y14" t="n">
-        <v>769.4160922631633</v>
+        <v>995.4042059748465</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>512.1098736314943</v>
+        <v>612.9409869359017</v>
       </c>
       <c r="C15" t="n">
-        <v>337.6568443503674</v>
+        <v>438.4879576547747</v>
       </c>
       <c r="D15" t="n">
-        <v>188.7224346891161</v>
+        <v>289.5535479935235</v>
       </c>
       <c r="E15" t="n">
-        <v>188.7224346891161</v>
+        <v>289.5535479935235</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600104</v>
+        <v>143.0189900204084</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K15" t="n">
-        <v>253.9410299829671</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994084</v>
+        <v>388.3205195324424</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.973362584464</v>
+        <v>844.2202093174978</v>
       </c>
       <c r="N15" t="n">
-        <v>1310.841828599076</v>
+        <v>1327.893220706756</v>
       </c>
       <c r="O15" t="n">
-        <v>1686.892462576446</v>
+        <v>1703.943854684126</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875405</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1813.514178822039</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U15" t="n">
-        <v>1585.326474581993</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V15" t="n">
-        <v>1350.174366350251</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W15" t="n">
-        <v>1095.937009622049</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X15" t="n">
-        <v>888.0855094165163</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.3252106515624</v>
+        <v>612.9409869359017</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G16" t="n">
-        <v>407.1880976177522</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H16" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I16" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701804</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L16" t="n">
         <v>166.2559978081031</v>
@@ -5448,40 +5448,40 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O16" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842141</v>
+        <v>478.494994250872</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3837778842141</v>
+        <v>189.0778242139114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1303.644965951394</v>
+        <v>651.0124555229581</v>
       </c>
       <c r="C17" t="n">
-        <v>1303.644965951394</v>
+        <v>282.0499385825464</v>
       </c>
       <c r="D17" t="n">
-        <v>1303.644965951394</v>
+        <v>282.0499385825464</v>
       </c>
       <c r="E17" t="n">
-        <v>917.8567133531499</v>
+        <v>282.0499385825464</v>
       </c>
       <c r="F17" t="n">
-        <v>506.8708085635423</v>
+        <v>282.0499385825464</v>
       </c>
       <c r="G17" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953288</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803414</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
         <v>1777.842707170708</v>
@@ -5536,31 +5536,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800052</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.393835800052</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.510729494611</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="U17" t="n">
-        <v>1634.707853294965</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="V17" t="n">
-        <v>1303.644965951394</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.644965951394</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="X17" t="n">
-        <v>1303.644965951394</v>
+        <v>1427.751627562892</v>
       </c>
       <c r="Y17" t="n">
-        <v>1303.644965951394</v>
+        <v>1037.61229558708</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>872.8996162867059</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C18" t="n">
-        <v>698.4465870055789</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D18" t="n">
-        <v>549.5121773443276</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E18" t="n">
-        <v>390.2747223388721</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F18" t="n">
-        <v>243.7401643657571</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G18" t="n">
-        <v>105.5552321065587</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K18" t="n">
-        <v>253.9410299829671</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L18" t="n">
-        <v>600.0736727994085</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M18" t="n">
         <v>1055.973362584464</v>
       </c>
       <c r="N18" t="n">
-        <v>1539.646373973722</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576446</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875405</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237205</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T18" t="n">
-        <v>1946.116217237205</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U18" t="n">
-        <v>1946.116217237205</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V18" t="n">
-        <v>1710.964109005462</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W18" t="n">
-        <v>1456.726752277261</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X18" t="n">
-        <v>1248.875252071728</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y18" t="n">
-        <v>1041.114953306774</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L19" t="n">
         <v>166.2559978081031</v>
@@ -5685,25 +5685,25 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O19" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U19" t="n">
         <v>331.6050467529616</v>
@@ -5712,13 +5712,13 @@
         <v>331.6050467529616</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022.100492129412</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.160165523012</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.894466916261</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.106214318017</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F20" t="n">
-        <v>793.1203095284093</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G20" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803413</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
         <v>1777.842707170708</v>
@@ -5773,31 +5773,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>2022.100492129412</v>
+        <v>1989.166964404866</v>
       </c>
       <c r="U20" t="n">
-        <v>2022.100492129412</v>
+        <v>1989.166964404866</v>
       </c>
       <c r="V20" t="n">
-        <v>2022.100492129412</v>
+        <v>1989.166964404866</v>
       </c>
       <c r="W20" t="n">
-        <v>2022.100492129412</v>
+        <v>1989.166964404866</v>
       </c>
       <c r="X20" t="n">
-        <v>2022.100492129412</v>
+        <v>1615.701206143786</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.100492129412</v>
+        <v>1225.561874167975</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>437.079939135603</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C21" t="n">
-        <v>262.626909854476</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D21" t="n">
-        <v>113.6925001932248</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K21" t="n">
-        <v>162.8271385329679</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9597813494094</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M21" t="n">
-        <v>964.8594711344649</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523723</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501093</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800052</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962385</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T21" t="n">
-        <v>1738.484244326148</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U21" t="n">
-        <v>1510.296540086102</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V21" t="n">
-        <v>1275.144431854359</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W21" t="n">
-        <v>1020.907075126158</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X21" t="n">
-        <v>813.0555749206248</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y21" t="n">
-        <v>605.295276155671</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.40666944383432</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="C22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>44.40666944383432</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701804</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L22" t="n">
         <v>166.2559978081031</v>
@@ -5922,40 +5922,40 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O22" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842141</v>
+        <v>439.4166798784008</v>
       </c>
       <c r="T22" t="n">
-        <v>299.0911576497212</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="U22" t="n">
-        <v>299.0911576497212</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="V22" t="n">
-        <v>44.40666944383432</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="W22" t="n">
-        <v>44.40666944383432</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="X22" t="n">
-        <v>44.40666944383432</v>
+        <v>211.1240596439079</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.40666944383432</v>
+        <v>211.1240596439079</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.9054987607761</v>
+        <v>1335.585246272809</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036444</v>
+        <v>1335.585246272809</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036444</v>
+        <v>1335.585246272809</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036444</v>
+        <v>949.7969936745649</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>538.8110888849574</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>120.8472807831442</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>120.8472807831442</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2256.941971675474</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V23" t="n">
-        <v>1925.879084331904</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1573.11042906179</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X23" t="n">
-        <v>1199.64467080071</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y23" t="n">
-        <v>809.505338824898</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152625</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
         <v>53.94298182036444</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>493.4767912696608</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T25" t="n">
-        <v>493.4767912696608</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>493.4767912696608</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>493.4767912696608</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2310.5492509541</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C26" t="n">
-        <v>1941.586734013688</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D26" t="n">
-        <v>1583.321035406938</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>1197.532782808694</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>786.5468780190861</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y26" t="n">
-        <v>2697.149091018222</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>261.391796148808</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>261.391796148808</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>261.391796148808</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>261.391796148808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>103.6434235813381</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.1711973675267</v>
+        <v>1349.514859931282</v>
       </c>
       <c r="C29" t="n">
-        <v>412.2086804271149</v>
+        <v>1349.514859931282</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036444</v>
+        <v>991.2491613245313</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2225.068338306413</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>1894.005450962842</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>1541.236795692728</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.771037431648</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.771037431648</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,25 +6569,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318.4909684781771</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C31" t="n">
-        <v>318.4909684781771</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D31" t="n">
-        <v>318.4909684781771</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E31" t="n">
-        <v>318.4909684781771</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>318.4909684781771</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6660,13 +6660,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>500.1394333084169</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.1394333084169</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1731.411330760289</v>
+        <v>1373.145632153538</v>
       </c>
       <c r="C32" t="n">
-        <v>1362.448813819877</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D32" t="n">
         <v>1004.183115213127</v>
@@ -6697,16 +6697,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2502.653459463586</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2502.653459463586</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>2502.653459463586</v>
       </c>
       <c r="W32" t="n">
-        <v>2125.74576872017</v>
+        <v>2149.884804193472</v>
       </c>
       <c r="X32" t="n">
-        <v>1752.280010459091</v>
+        <v>2149.884804193472</v>
       </c>
       <c r="Y32" t="n">
-        <v>1752.280010459091</v>
+        <v>1759.74547221766</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C34" t="n">
-        <v>246.1363086691491</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D34" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>98.22321508675597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>246.1363086691491</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>246.1363086691491</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y34" t="n">
-        <v>246.1363086691491</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1386.090004781549</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="C35" t="n">
-        <v>1386.090004781549</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.090004781549</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E35" t="n">
-        <v>1000.301752183304</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>589.3158473936969</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>171.3520392918838</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.090004781549</v>
+        <v>1278.657628994267</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>464.928886609972</v>
+        <v>1920.918182229333</v>
       </c>
       <c r="C38" t="n">
-        <v>464.928886609972</v>
+        <v>1551.955665288921</v>
       </c>
       <c r="D38" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X38" t="n">
-        <v>1241.668058649906</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="Y38" t="n">
-        <v>851.5287266740938</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1199.13500546934</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>830.1724885289282</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>2349.339935770353</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>1975.874177509273</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1585.734845533462</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2323.103882821189</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C44" t="n">
-        <v>1954.141365880777</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.875667274026</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861747</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7684,16 +7684,16 @@
         <v>2465.942913862885</v>
       </c>
       <c r="V44" t="n">
-        <v>2465.942913862885</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W44" t="n">
-        <v>2465.942913862885</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X44" t="n">
-        <v>2465.942913862885</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y44" t="n">
-        <v>2465.942913862885</v>
+        <v>1290.166034793805</v>
       </c>
     </row>
     <row r="45">
@@ -7742,10 +7742,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>597.1409169113406</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669113</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>278.8061115155811</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>37.03447478123314</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>70.9958191250947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033748</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>50.57316300554223</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>248.2266719449211</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>301.2391402483408</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033748</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>162.7466168780968</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520591</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033748</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K21" t="n">
-        <v>172.4310032247006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>162.7466168780969</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509466</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783514</v>
       </c>
       <c r="P24" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627885</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360582</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="4">
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>59.50733446035932</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>5.342370247997209</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>301.7284640085477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>57.69819238457764</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>225.0877866566119</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>126.7411357659665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.7295276539643</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23342,10 +23342,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>145.8897551325921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>70.7895772424515</v>
+        <v>69.23426681040527</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.54417399343876</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,13 +23472,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
@@ -23515,7 +23515,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>134.7567726462567</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>374.9918431984079</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>36.98028076524299</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>133.313887070575</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>48.54417399343882</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385096</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23712,10 +23712,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>203.7377475268194</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>283.3870059552183</v>
+        <v>176.8292278899289</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
         <v>171.5352284535379</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393325</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379247</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>44.2823055271134</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.7895772424515</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207134</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>79.28624954052111</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23946,7 +23946,7 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830251</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>292.0719684306708</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379247</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>99.64967256115253</v>
       </c>
       <c r="U20" t="n">
         <v>251.2648474376504</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>79.28624954052117</v>
       </c>
       <c r="T21" t="n">
-        <v>59.03425191964254</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,10 +24147,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I22" t="n">
-        <v>139.6284616790227</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>129.0331891508171</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>85.69606027170924</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>31.86743971662696</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,16 +24411,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>126.5050599227711</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>164.360401793279</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>289.9451112355739</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>85.7621844489743</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853701</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>343.63551139315</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>54.79094525606797</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.43396303143581</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>157.5193616454013</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>362.0738487616668</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>78.37604769337946</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>173.2359645635688</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>101.5836170892036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,19 +25128,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>207.687805867553</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>338.984383712031</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>226.1723870664417</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>302.3647090711136</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3958356744445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>32.71940047291454</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>30.22198880999339</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,13 +25684,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>4.909905022022656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>226.5550366661093</v>
       </c>
       <c r="V43" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.3232009322009</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>268.9431562436816</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>82.46735232787623</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640649.3215331075</v>
+        <v>640649.3215331074</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640649.3215331075</v>
+        <v>640649.3215331073</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047657</v>
@@ -26325,37 +26325,37 @@
         <v>235437.2422819576</v>
       </c>
       <c r="F2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="G2" t="n">
         <v>235437.2422819576</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149696</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134257</v>
+        <v>287351.7100134256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116919</v>
+        <v>134288.701511692</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871087</v>
+        <v>71355.62051871081</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>9085.960889837486</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="L4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9371.018034361481</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
@@ -26459,7 +26459,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20254.82754011398</v>
+        <v>8036.816920073512</v>
       </c>
       <c r="C6" t="n">
-        <v>101024.2590716617</v>
+        <v>88806.24845162118</v>
       </c>
       <c r="D6" t="n">
-        <v>101024.2590716616</v>
+        <v>88806.24845162118</v>
       </c>
       <c r="E6" t="n">
-        <v>-98540.56321861199</v>
+        <v>-106675.1736609054</v>
       </c>
       <c r="F6" t="n">
-        <v>188811.1467948137</v>
+        <v>180676.5363525202</v>
       </c>
       <c r="G6" t="n">
-        <v>188811.1467948138</v>
+        <v>180676.5363525202</v>
       </c>
       <c r="H6" t="n">
-        <v>188811.1467948137</v>
+        <v>180676.5363525201</v>
       </c>
       <c r="I6" t="n">
-        <v>81803.78190550697</v>
+        <v>75735.3681596877</v>
       </c>
       <c r="J6" t="n">
-        <v>153032.5408180926</v>
+        <v>146964.1270722734</v>
       </c>
       <c r="K6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="L6" t="n">
-        <v>216092.4834171986</v>
+        <v>210024.0696713795</v>
       </c>
       <c r="M6" t="n">
-        <v>144736.8628984881</v>
+        <v>138668.4491526687</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713795</v>
       </c>
       <c r="O6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.483417199</v>
+        <v>210024.0696713797</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>251.2545088598902</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,34 +26798,34 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="F4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="G4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="H4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571963</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723539</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045425</v>
+        <v>146.9388138045426</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721643</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832061</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0808054701860953</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881675</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S12" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507752</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933434</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464878</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400155</v>
+        <v>7.89598186040015</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686802</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008888</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523066</v>
@@ -32007,7 +32007,7 @@
         <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
         <v>180.2290257372557</v>
@@ -32022,16 +32022,16 @@
         <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721641</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S14" t="n">
         <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745403</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609527</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730928</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I15" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632921</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881678</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
         <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092685</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057177</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507751</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
         <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933436</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L16" t="n">
-        <v>67.3609219326991</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985387</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620548</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464875</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970455</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784342</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R16" t="n">
         <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400153</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K17" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721643</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0808054701860953</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L18" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S18" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
         <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507752</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464878</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686803</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O20" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721642</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I21" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092686</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
@@ -32584,7 +32584,7 @@
         <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507752</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933437</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N22" t="n">
-        <v>69.3338876662055</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464877</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784343</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
         <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526491</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743903</v>
+        <v>99.08532226743895</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007137</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>257.5946983499414</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>6.259301392769931</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107545</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345152</v>
+        <v>30.37038724345149</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459806</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547637</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K14" t="n">
         <v>232.5400468784908</v>
@@ -35667,7 +35667,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743898</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070364</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
-        <v>257.4428949642542</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O15" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>270.4639668598775</v>
       </c>
       <c r="Q15" t="n">
         <v>139.0814686107544</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345151</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301524</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868843</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459804</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K17" t="n">
         <v>232.5400468784908</v>
@@ -35892,19 +35892,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526491</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743903</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O18" t="n">
-        <v>148.7334228310342</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.687595251474</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.0814686107545</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345152</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459806</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784908</v>
@@ -36129,19 +36129,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N20" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743901</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>121.8578402191585</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L21" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296669</v>
+        <v>148.7334228310342</v>
       </c>
       <c r="P21" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345152</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868844</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459805</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,10 +36451,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,10 +36925,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37390,16 +37390,16 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.284463230715</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,7 +37636,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839184</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972222.1386223428</v>
+        <v>1037929.191188724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298025</v>
+        <v>405687.0519298026</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3453970742849</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>188.2184153478179</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,7 +949,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>52.32885382964328</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>26.60719650430776</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,58 +1302,58 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>147.5620465916217</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>62.40091169251094</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>11.56901559424542</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.555310432046248</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.5604262915039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>224.7881408103784</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.24609545764566</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>99.82280217136334</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>70.52026753061138</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
-        <v>48.39989579700855</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>194.0496263582882</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>237.4634412478799</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>242.1255267951452</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>118.7001499689964</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>166.4187114122471</v>
       </c>
     </row>
     <row r="19">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.4816480396904</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>363.6602909292855</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393331</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>119.0246026812334</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.35859283669745</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>179.4039227790896</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.734157121089036</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>87.08742702575498</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>89.00389277357124</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>66.23525597315201</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>60.44533761123545</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>107.5648922361043</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>79.7859894428951</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>38.29485867911176</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.192885533049081</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>249.0529787410933</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>138.0722726642783</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>65.8579472773587</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.74671696643804</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731075</v>
       </c>
       <c r="D38" t="n">
-        <v>128.5106545542413</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.85147824706013</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>219.4182428509135</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>24.25641376481833</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>221.0021786982956</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>59.72683757586846</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.2947824123719</v>
+        <v>47.40419526769168</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.6781866221427</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4515,16 +4515,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4828,19 +4828,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
         <v>262.7299197543128</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>353.7257600495809</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>210.869396638348</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W9" t="n">
-        <v>561.5772602551137</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X9" t="n">
-        <v>353.7257600495809</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y9" t="n">
-        <v>353.7257600495809</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.644965951394</v>
+        <v>1739.458157179841</v>
       </c>
       <c r="C11" t="n">
-        <v>934.6824490109821</v>
+        <v>1370.49564023943</v>
       </c>
       <c r="D11" t="n">
-        <v>934.6824490109821</v>
+        <v>1012.229941632679</v>
       </c>
       <c r="E11" t="n">
-        <v>934.6824490109821</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="F11" t="n">
-        <v>523.6965442213746</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="G11" t="n">
-        <v>105.2191006478303</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L11" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5056,10 +5056,10 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
@@ -5074,19 +5074,19 @@
         <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1634.707853294964</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V11" t="n">
-        <v>1303.644965951394</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W11" t="n">
-        <v>1303.644965951394</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="X11" t="n">
-        <v>1303.644965951394</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="Y11" t="n">
-        <v>1303.644965951394</v>
+        <v>1888.510729494611</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410141</v>
+        <v>608.0032684786802</v>
       </c>
       <c r="C12" t="n">
-        <v>202.9963523598871</v>
+        <v>433.5502391975532</v>
       </c>
       <c r="D12" t="n">
-        <v>202.9963523598871</v>
+        <v>284.6158295363019</v>
       </c>
       <c r="E12" t="n">
-        <v>43.75889735443158</v>
+        <v>125.3783745308464</v>
       </c>
       <c r="F12" t="n">
-        <v>43.75889735443158</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="G12" t="n">
-        <v>43.75889735443158</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H12" t="n">
-        <v>43.75889735443158</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K12" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L12" t="n">
-        <v>508.959781349409</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M12" t="n">
-        <v>964.8594711344645</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N12" t="n">
-        <v>1448.532482523722</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O12" t="n">
-        <v>1824.583116501092</v>
+        <v>1965.506473496562</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962385</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.853686831559</v>
+        <v>1909.407573669225</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591513</v>
+        <v>1681.219869429179</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.51387435977</v>
+        <v>1446.067761197437</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315688</v>
+        <v>1191.830404469235</v>
       </c>
       <c r="X12" t="n">
-        <v>753.425017426036</v>
+        <v>983.9789042637021</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610821</v>
+        <v>776.2186054987483</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600103</v>
+        <v>201.9847075371443</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U13" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V13" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600103</v>
+        <v>306.5911987406836</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>995.4042059748465</v>
+        <v>1056.686565321248</v>
       </c>
       <c r="C14" t="n">
-        <v>626.4416890344348</v>
+        <v>687.7240483808366</v>
       </c>
       <c r="D14" t="n">
-        <v>626.4416890344348</v>
+        <v>687.7240483808366</v>
       </c>
       <c r="E14" t="n">
-        <v>626.4416890344348</v>
+        <v>687.7240483808366</v>
       </c>
       <c r="F14" t="n">
-        <v>215.4557842448272</v>
+        <v>687.7240483808366</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4557842448272</v>
+        <v>269.2466048072923</v>
       </c>
       <c r="H14" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L14" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5293,37 +5293,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>1834.218536131508</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.335429826068</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="U14" t="n">
-        <v>1359.532553626421</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="V14" t="n">
-        <v>1359.532553626421</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="W14" t="n">
-        <v>1006.763898356307</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="X14" t="n">
-        <v>1006.763898356307</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="Y14" t="n">
-        <v>995.4042059748465</v>
+        <v>1056.686565321248</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>612.9409869359017</v>
+        <v>809.5322608961482</v>
       </c>
       <c r="C15" t="n">
-        <v>438.4879576547747</v>
+        <v>635.0792316150212</v>
       </c>
       <c r="D15" t="n">
-        <v>289.5535479935235</v>
+        <v>486.1448219537698</v>
       </c>
       <c r="E15" t="n">
-        <v>289.5535479935235</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="F15" t="n">
-        <v>143.0189900204084</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K15" t="n">
-        <v>42.18787671600103</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L15" t="n">
-        <v>388.3205195324424</v>
+        <v>600.0736727994083</v>
       </c>
       <c r="M15" t="n">
-        <v>844.2202093174978</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1327.893220706756</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O15" t="n">
-        <v>1703.943854684126</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
@@ -5387,22 +5387,22 @@
         <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1746.129955106379</v>
+        <v>1746.129955106378</v>
       </c>
       <c r="U15" t="n">
-        <v>1517.942250866333</v>
+        <v>1674.897361641114</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.79014263459</v>
+        <v>1439.745253409372</v>
       </c>
       <c r="W15" t="n">
-        <v>1028.552785906388</v>
+        <v>1185.50789668117</v>
       </c>
       <c r="X15" t="n">
-        <v>820.7012857008556</v>
+        <v>1185.50789668117</v>
       </c>
       <c r="Y15" t="n">
-        <v>612.9409869359017</v>
+        <v>977.7475979162161</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842139</v>
+        <v>238.1976003102315</v>
       </c>
       <c r="V16" t="n">
-        <v>478.494994250872</v>
+        <v>238.1976003102315</v>
       </c>
       <c r="W16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>651.0124555229581</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="C17" t="n">
-        <v>282.0499385825464</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D17" t="n">
-        <v>282.0499385825464</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E17" t="n">
-        <v>282.0499385825464</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F17" t="n">
-        <v>282.0499385825464</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5530,37 +5530,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.217385823971</v>
+        <v>1502.82230433029</v>
       </c>
       <c r="X17" t="n">
-        <v>1427.751627562892</v>
+        <v>1502.82230433029</v>
       </c>
       <c r="Y17" t="n">
-        <v>1037.61229558708</v>
+        <v>1258.251065143275</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>524.8127706638348</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C18" t="n">
-        <v>350.3597413827078</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D18" t="n">
-        <v>201.4253317214565</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E18" t="n">
-        <v>42.18787671600103</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K18" t="n">
-        <v>253.941029982967</v>
+        <v>162.8271385329672</v>
       </c>
       <c r="L18" t="n">
-        <v>600.0736727994084</v>
+        <v>508.9597813494086</v>
       </c>
       <c r="M18" t="n">
-        <v>1055.973362584464</v>
+        <v>964.859471134464</v>
       </c>
       <c r="N18" t="n">
-        <v>1539.646373973721</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O18" t="n">
-        <v>1915.697007951092</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5618,28 +5618,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T18" t="n">
-        <v>1826.21707585438</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U18" t="n">
-        <v>1598.029371614334</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V18" t="n">
-        <v>1362.877263382591</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W18" t="n">
-        <v>1108.63990665439</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="X18" t="n">
-        <v>900.7884064488567</v>
+        <v>1007.662374154237</v>
       </c>
       <c r="Y18" t="n">
-        <v>693.0281076839028</v>
+        <v>839.5626656570178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600103</v>
+        <v>358.4475949563068</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600103</v>
+        <v>208.3309555439711</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600103</v>
+        <v>208.3309555439711</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600103</v>
+        <v>208.3309555439711</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U19" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>838.9620341038528</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="C20" t="n">
-        <v>838.9620341038528</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="D20" t="n">
-        <v>838.9620341038528</v>
+        <v>1001.26685501967</v>
       </c>
       <c r="E20" t="n">
-        <v>453.1737815056086</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="F20" t="n">
-        <v>42.18787671600103</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K20" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5767,37 +5767,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="T20" t="n">
-        <v>1989.166964404866</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="U20" t="n">
-        <v>1989.166964404866</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="V20" t="n">
-        <v>1989.166964404866</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="W20" t="n">
-        <v>1989.166964404866</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="X20" t="n">
-        <v>1615.701206143786</v>
+        <v>1359.53255362642</v>
       </c>
       <c r="Y20" t="n">
-        <v>1225.561874167975</v>
+        <v>1359.53255362642</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>524.8127706638348</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C21" t="n">
-        <v>350.3597413827078</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D21" t="n">
-        <v>201.4253317214565</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E21" t="n">
-        <v>42.18787671600103</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K21" t="n">
         <v>253.941029982967</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994084</v>
+        <v>600.0736727994083</v>
       </c>
       <c r="M21" t="n">
         <v>1055.973362584464</v>
@@ -5846,10 +5846,10 @@
         <v>1539.646373973721</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
@@ -5858,25 +5858,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>2026.203337985206</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T21" t="n">
-        <v>1826.21707585438</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="U21" t="n">
-        <v>1598.029371614334</v>
+        <v>1717.928512997158</v>
       </c>
       <c r="V21" t="n">
-        <v>1362.877263382591</v>
+        <v>1482.776404765415</v>
       </c>
       <c r="W21" t="n">
-        <v>1108.63990665439</v>
+        <v>1228.539048037214</v>
       </c>
       <c r="X21" t="n">
-        <v>900.7884064488567</v>
+        <v>1047.322964421972</v>
       </c>
       <c r="Y21" t="n">
-        <v>693.0281076839028</v>
+        <v>839.5626656570178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600103</v>
+        <v>358.4475949563068</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600103</v>
+        <v>358.4475949563068</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600103</v>
+        <v>358.4475949563068</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600103</v>
+        <v>358.4475949563068</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600103</v>
+        <v>189.2173955045533</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600103</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S22" t="n">
-        <v>439.4166798784008</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="W22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="X22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.1240596439079</v>
+        <v>527.3837778842137</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1335.585246272809</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C23" t="n">
-        <v>1335.585246272809</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D23" t="n">
-        <v>1335.585246272809</v>
+        <v>972.7956167052914</v>
       </c>
       <c r="E23" t="n">
-        <v>949.7969936745649</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>538.8110888849574</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>120.8472807831442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>120.8472807831442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656313</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2112.324418312743</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>2112.324418312743</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y23" t="n">
-        <v>1722.185086336931</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961344</v>
@@ -6068,49 +6068,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036444</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1036.358670716696</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C26" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D26" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>1893.689751284806</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.097842756629</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y26" t="n">
-        <v>1422.958510780817</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1349.514859931282</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C29" t="n">
-        <v>1349.514859931282</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D29" t="n">
-        <v>991.2491613245313</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1739.654191907093</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>1739.654191907093</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1349.514859931282</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.8327295799424</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1373.145632153538</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C32" t="n">
-        <v>1004.183115213127</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>1004.183115213127</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2502.653459463586</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2502.653459463586</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.653459463586</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W32" t="n">
-        <v>2149.884804193472</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X32" t="n">
-        <v>2149.884804193472</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y32" t="n">
-        <v>1759.74547221766</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6791,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.0596212327002</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>210.7222632714563</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1278.657628994267</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.657628994267</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D35" t="n">
-        <v>920.3919303875161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X35" t="n">
-        <v>1278.657628994267</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y35" t="n">
-        <v>1278.657628994267</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="36">
@@ -6998,34 +6998,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7131,16 +7131,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1920.918182229333</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1551.955665288921</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2311.057514205144</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1920.918182229333</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
@@ -7259,10 +7259,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517452</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E40" t="n">
-        <v>358.5813018857447</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>353.9308493771256</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036444</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.4943954681378</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,16 +7435,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2672.647662972951</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2672.647662972951</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2672.647662972951</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
         <v>2418.885877611043</v>
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,37 +7502,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>667.7988452409105</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V43" t="n">
-        <v>667.7988452409105</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W43" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X43" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>903.5661947296837</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C44" t="n">
-        <v>534.603677789272</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D44" t="n">
         <v>534.603677789272</v>
@@ -7678,22 +7678,22 @@
         <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2134.880026519314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>1782.1113712492</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>1408.645612988121</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.166034793805</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537796</v>
@@ -7751,25 +7751,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>597.1409169113406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>369.8327295799423</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U46" t="n">
-        <v>369.8327295799423</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V46" t="n">
-        <v>369.8327295799423</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W46" t="n">
-        <v>369.8327295799423</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X46" t="n">
-        <v>369.8327295799423</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>278.8061115155811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>37.03447478123302</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.9958191250947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K15" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>301.2391402483408</v>
+        <v>226.4285348520587</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>226.4285348520591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>162.7466168780969</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520586</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783514</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>18.67467251196047</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>37.72296673315688</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>126.0561017912447</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>59.50733446035932</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>92.7403585637406</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>225.0877866566119</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>235.1717950718589</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>266.7295276539643</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>133.5001967991385</v>
       </c>
       <c r="G12" t="n">
         <v>136.8030829366063</v>
@@ -23357,7 +23357,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>69.23426681040527</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>76.27155389043344</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>141.8250664795777</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,19 +23472,19 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>104.3422985360969</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.9918431984079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>36.98028076524299</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>155.3855596670342</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.537897457236</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>203.7377475268194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>176.8292278899289</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>329.1304393464753</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>144.1124118609083</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.8030829366063</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>79.28624954052111</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>39.26398436505721</v>
       </c>
     </row>
     <row r="19">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>3.056249417545644</v>
       </c>
       <c r="H19" t="n">
         <v>158.1988625129318</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23946,13 +23946,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>18.27007914297633</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>99.64967256115253</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S21" t="n">
-        <v>79.28624954052117</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>26.36906242438786</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>154.4647053918428</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>129.0331891508171</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
         <v>286.2943157982424</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>292.9264772986905</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>85.69606027170924</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>85.98862503533371</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>257.7079995349033</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>289.9451112355739</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>343.63551139315</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>397.6831602086623</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815482</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923383</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5193616454013</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>116.2199130299142</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>78.37604769337946</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.2359645635688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541058</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>299.4149444936488</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>338.984383712031</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923383</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>89.79231049790002</v>
       </c>
       <c r="D38" t="n">
-        <v>226.1723870664417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25450,13 +25450,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>161.4583240119908</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>32.71940047291454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>30.22198880999339</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,10 +25684,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>106.7500797718394</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>226.5550366661093</v>
+        <v>72.60755131498749</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>268.9431562436816</v>
+        <v>338.8337433883619</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>82.46735232787623</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640649.3215331074</v>
+        <v>640649.3215331072</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640649.3215331073</v>
+        <v>640649.3215331074</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640649.3215331074</v>
+        <v>640649.3215331073</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640649.3215331074</v>
+        <v>640649.3215331075</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="E2" t="n">
         <v>235437.2422819576</v>
       </c>
       <c r="F2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="G2" t="n">
         <v>235437.2422819576</v>
@@ -26340,7 +26340,7 @@
         <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149696</v>
@@ -26349,13 +26349,13 @@
         <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="O2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134255</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.701511692</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871081</v>
+        <v>71355.62051871083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,10 +26438,10 @@
         <v>9085.960889837486</v>
       </c>
       <c r="I4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="J4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361485</v>
@@ -26450,7 +26450,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8036.816920073512</v>
+        <v>19033.0264781099</v>
       </c>
       <c r="C6" t="n">
-        <v>88806.24845162118</v>
+        <v>99802.45800965758</v>
       </c>
       <c r="D6" t="n">
-        <v>88806.24845162118</v>
+        <v>99802.45800965767</v>
       </c>
       <c r="E6" t="n">
-        <v>-106675.1736609054</v>
+        <v>-99354.02426284117</v>
       </c>
       <c r="F6" t="n">
-        <v>180676.5363525202</v>
+        <v>187997.6857505843</v>
       </c>
       <c r="G6" t="n">
-        <v>180676.5363525202</v>
+        <v>187997.6857505844</v>
       </c>
       <c r="H6" t="n">
-        <v>180676.5363525201</v>
+        <v>187997.6857505843</v>
       </c>
       <c r="I6" t="n">
-        <v>75735.3681596877</v>
+        <v>81196.9405309249</v>
       </c>
       <c r="J6" t="n">
-        <v>146964.1270722734</v>
+        <v>152425.6994435107</v>
       </c>
       <c r="K6" t="n">
-        <v>210024.0696713797</v>
+        <v>215485.6420426167</v>
       </c>
       <c r="L6" t="n">
-        <v>210024.0696713795</v>
+        <v>215485.6420426167</v>
       </c>
       <c r="M6" t="n">
-        <v>138668.4491526687</v>
+        <v>144130.0215239061</v>
       </c>
       <c r="N6" t="n">
-        <v>210024.0696713795</v>
+        <v>215485.6420426168</v>
       </c>
       <c r="O6" t="n">
-        <v>210024.0696713797</v>
+        <v>215485.6420426167</v>
       </c>
       <c r="P6" t="n">
-        <v>210024.0696713797</v>
+        <v>215485.6420426169</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571964</v>
+        <v>126.4891553571965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045426</v>
+        <v>146.9388138045427</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723536</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S11" t="n">
         <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092682</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R12" t="n">
         <v>33.55432856057175</v>
@@ -31870,10 +31870,10 @@
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304141</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I13" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644861</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008884</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P20" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721637</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T20" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609523</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730925</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632918</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M21" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985383</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400148</v>
       </c>
       <c r="T22" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K11" t="n">
         <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K12" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>257.5946983499414</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
@@ -35506,10 +35506,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>6.259301392769701</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301521</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35743,10 +35743,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>270.4639668598775</v>
+        <v>195.6533614635954</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070364</v>
+        <v>121.8578402191578</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -35980,7 +35980,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>195.6533614635958</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547632</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
         <v>320.887128151277</v>
@@ -36141,7 +36141,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743893</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070364</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M21" t="n">
         <v>460.5047371566217</v>
@@ -36214,13 +36214,13 @@
         <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
-        <v>148.7334228310342</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635954</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459801</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37627,13 +37627,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
